--- a/docs/DB-ideas.xlsx
+++ b/docs/DB-ideas.xlsx
@@ -80,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>

--- a/docs/DB-ideas.xlsx
+++ b/docs/DB-ideas.xlsx
@@ -9,63 +9,226 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>Metric Name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Data Level</t>
-  </si>
-  <si>
-    <t>Dependancy Formula</t>
-  </si>
-  <si>
-    <t>Calendar</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Noise</t>
-  </si>
-  <si>
-    <t>Hindering Level</t>
-  </si>
-  <si>
-    <t>FeedOrAuto</t>
-  </si>
-  <si>
-    <t>DataLevel</t>
-  </si>
-  <si>
-    <t>Level seq</t>
-  </si>
-  <si>
-    <t>TimelyData</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Metric Name Attribute</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>tenant role</t>
+  </si>
+  <si>
+    <t>tenant id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>login id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user role</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>role id</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>end date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>hierarchy level</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>category id</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>level id</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>plane hierarchy</t>
+  </si>
+  <si>
+    <t>plane id</t>
+  </si>
+  <si>
+    <t>hierarchy id</t>
+  </si>
+  <si>
+    <t>planning item</t>
+  </si>
+  <si>
+    <t>item plane</t>
+  </si>
+  <si>
+    <t>item id</t>
+  </si>
+  <si>
+    <t>metric name</t>
+  </si>
+  <si>
+    <t>metric plane</t>
+  </si>
+  <si>
+    <t>metric id</t>
+  </si>
+  <si>
+    <t>metric attribute</t>
+  </si>
+  <si>
+    <t>attrib name</t>
+  </si>
+  <si>
+    <t>attrib value</t>
+  </si>
+  <si>
+    <t>metric rule</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>horizon index</t>
+  </si>
+  <si>
+    <t>metric rule values</t>
+  </si>
+  <si>
+    <t>rule id</t>
+  </si>
+  <si>
+    <t>var name</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>relative horizon</t>
+  </si>
+  <si>
+    <t>absolute horizon</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>phase page</t>
+  </si>
+  <si>
+    <t>phase id</t>
+  </si>
+  <si>
+    <t>page id</t>
+  </si>
+  <si>
+    <t>page view</t>
+  </si>
+  <si>
+    <t>view id</t>
+  </si>
+  <si>
+    <t>view plane</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>time level</t>
+  </si>
+  <si>
+    <t>display level</t>
+  </si>
+  <si>
+    <t>metric value</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>end time</t>
+  </si>
+  <si>
+    <t>orig value</t>
+  </si>
+  <si>
+    <t>forecast val</t>
+  </si>
+  <si>
+    <t>is loaded</t>
+  </si>
+  <si>
+    <t>is computed</t>
+  </si>
+  <si>
+    <t>audit id</t>
+  </si>
+  <si>
+    <t>over ride</t>
+  </si>
+  <si>
+    <t>metric value id</t>
+  </si>
+  <si>
+    <t>old val</t>
+  </si>
+  <si>
+    <t>new val</t>
+  </si>
+  <si>
+    <t>modified on</t>
+  </si>
+  <si>
+    <t>modified by</t>
   </si>
 </sst>
 </file>
@@ -140,12 +303,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,60 +325,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G7"/>
+  <dimension ref="B3:K40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9336734693878"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6581632653061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
@@ -228,52 +366,463 @@
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="C7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -285,4 +834,69 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="n">
+        <f aca="false">B2/B3</f>
+        <v>3.67647058823529</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
+        <f aca="false">C5*B4</f>
+        <v>14.3382352941177</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <f aca="false">C6/B1</f>
+        <v>12.9173290937997</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>